--- a/食谱记录.xlsx
+++ b/食谱记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="135">
   <si>
     <t>菜谱名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -485,6 +485,62 @@
   </si>
   <si>
     <t>不反酸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒绿皮茄子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒜薹炒肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭+黑芝麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲫鱼山药汤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面皮子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永昌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸爽可口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烤馍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米牛奶粥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炒西葫芦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蒸玉米、胡萝卜、山药</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -829,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E55" sqref="E55"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62:B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1056,7 +1112,7 @@
         <v>51</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C54" si="2">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A11) &amp; "&amp;cat=1001"</f>
+        <f t="shared" ref="C11:C63" si="2">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A11) &amp; "&amp;cat=1001"</f>
         <v>https://www.xiachufang.com/search/?keyword=%E8%92%B8%E7%8E%89%E7%B1%B3&amp;cat=1001</v>
       </c>
       <c r="D11" t="s">
@@ -1968,6 +2024,192 @@
         <v>45812</v>
       </c>
       <c r="F54" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>121</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%82%92%E7%BB%BF%E7%9A%AE%E8%8C%84%E5%AD%90&amp;cat=1001</v>
+      </c>
+      <c r="D55" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="1">
+        <v>45812</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>122</v>
+      </c>
+      <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E8%92%9C%E8%96%B9%E7%82%92%E8%82%89&amp;cat=1001</v>
+      </c>
+      <c r="D56" t="s">
+        <v>75</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45812</v>
+      </c>
+      <c r="F56" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+      <c r="C57" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%B1%B3%E9%A5%AD%2B%E9%BB%91%E8%8A%9D%E9%BA%BB&amp;cat=1001</v>
+      </c>
+      <c r="D57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E57" s="1">
+        <v>45812</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>125</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+      <c r="C58" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%B2%AB%E9%B1%BC%E5%B1%B1%E8%8D%AF%E6%B1%A4&amp;cat=1001</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" s="1">
+        <v>45812</v>
+      </c>
+      <c r="F58" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" t="s">
+        <v>127</v>
+      </c>
+      <c r="C59" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%9D%A2%E7%9A%AE%E5%AD%90&amp;cat=1001</v>
+      </c>
+      <c r="D59" t="s">
+        <v>128</v>
+      </c>
+      <c r="E59" s="1">
+        <v>45812</v>
+      </c>
+      <c r="F59" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s">
+        <v>108</v>
+      </c>
+      <c r="C60" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%83%A4%E9%A6%8D&amp;cat=1001</v>
+      </c>
+      <c r="D60" t="s">
+        <v>130</v>
+      </c>
+      <c r="E60" s="1">
+        <v>45812</v>
+      </c>
+      <c r="F60" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B61" t="s">
+        <v>108</v>
+      </c>
+      <c r="C61" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%B0%8F%E7%B1%B3%E7%89%9B%E5%A5%B6%E7%B2%A5&amp;cat=1001</v>
+      </c>
+      <c r="D61" t="s">
+        <v>75</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C62" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%82%92%E8%A5%BF%E8%91%AB%E8%8A%A6&amp;cat=1001</v>
+      </c>
+      <c r="D62" t="s">
+        <v>133</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" t="s">
+        <v>108</v>
+      </c>
+      <c r="C63" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E8%92%B8%E7%8E%89%E7%B1%B3%E3%80%81%E8%83%A1%E8%90%9D%E5%8D%9C%E3%80%81%E5%B1%B1%E8%8D%AF&amp;cat=1001</v>
+      </c>
+      <c r="E63" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F63" t="s">
         <v>34</v>
       </c>
     </row>

--- a/食谱记录.xlsx
+++ b/食谱记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="155">
   <si>
     <t>菜谱名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -541,6 +541,86 @@
   </si>
   <si>
     <t>蒸玉米、胡萝卜、山药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉炖冬瓜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒油麦菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膳食纤维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>凉拌豆芽胡萝卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>米饭+黑芝麻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主食</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>酸奶</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水煮西蓝花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉米胡萝卜汁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拌胡萝卜粉丝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸡蛋饼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美丽出品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛肉火锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵州黄牛肉火锅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾仁炒西蓝花</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软烂好吃，营养丰富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营养丰富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清炒豆腐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丰富</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -885,10 +965,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G63"/>
+  <dimension ref="A1:G76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:B63"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1112,7 +1192,7 @@
         <v>51</v>
       </c>
       <c r="C11" t="str">
-        <f t="shared" ref="C11:C63" si="2">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A11) &amp; "&amp;cat=1001"</f>
+        <f t="shared" ref="C11:C76" si="2">"https://www.xiachufang.com/search/?keyword=" &amp; _xlfn.ENCODEURL(A11) &amp; "&amp;cat=1001"</f>
         <v>https://www.xiachufang.com/search/?keyword=%E8%92%B8%E7%8E%89%E7%B1%B3&amp;cat=1001</v>
       </c>
       <c r="D11" t="s">
@@ -2211,6 +2291,279 @@
       </c>
       <c r="F63" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>135</v>
+      </c>
+      <c r="B64" t="s">
+        <v>108</v>
+      </c>
+      <c r="C64" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%89%9B%E8%82%89%E7%82%96%E5%86%AC%E7%93%9C&amp;cat=1001</v>
+      </c>
+      <c r="D64" t="s">
+        <v>151</v>
+      </c>
+      <c r="E64" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F64" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>136</v>
+      </c>
+      <c r="B65" t="s">
+        <v>108</v>
+      </c>
+      <c r="C65" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%B8%85%E7%82%92%E6%B2%B9%E9%BA%A6%E8%8F%9C&amp;cat=1001</v>
+      </c>
+      <c r="D65" t="s">
+        <v>137</v>
+      </c>
+      <c r="E65" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F65" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" t="s">
+        <v>108</v>
+      </c>
+      <c r="C66" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E5%87%89%E6%8B%8C%E8%B1%86%E8%8A%BD%E8%83%A1%E8%90%9D%E5%8D%9C&amp;cat=1001</v>
+      </c>
+      <c r="D66" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F66" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>139</v>
+      </c>
+      <c r="B67" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%B1%B3%E9%A5%AD%2B%E9%BB%91%E8%8A%9D%E9%BA%BB&amp;cat=1001</v>
+      </c>
+      <c r="D67" t="s">
+        <v>140</v>
+      </c>
+      <c r="E67" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F67" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>150</v>
+      </c>
+      <c r="B68" t="s">
+        <v>108</v>
+      </c>
+      <c r="C68" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E8%99%BE%E4%BB%81%E7%82%92%E8%A5%BF%E8%93%9D%E8%8A%B1&amp;cat=1001</v>
+      </c>
+      <c r="D68" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>153</v>
+      </c>
+      <c r="B69" t="s">
+        <v>108</v>
+      </c>
+      <c r="C69" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%B8%85%E7%82%92%E8%B1%86%E8%85%90&amp;cat=1001</v>
+      </c>
+      <c r="D69" t="s">
+        <v>152</v>
+      </c>
+      <c r="E69" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>146</v>
+      </c>
+      <c r="B70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C70" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%A6%92%E5%A4%B4&amp;cat=1001</v>
+      </c>
+      <c r="D70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F70" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>141</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%85%B8%E5%A5%B6&amp;cat=1001</v>
+      </c>
+      <c r="D71" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="1">
+        <v>45813</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>145</v>
+      </c>
+      <c r="B72" t="s">
+        <v>108</v>
+      </c>
+      <c r="C72" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E9%B8%A1%E8%9B%8B%E9%A5%BC&amp;cat=1001</v>
+      </c>
+      <c r="D72" t="s">
+        <v>89</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45814</v>
+      </c>
+      <c r="F72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>108</v>
+      </c>
+      <c r="C73" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%8B%8C%E8%83%A1%E8%90%9D%E5%8D%9C%E7%B2%89%E4%B8%9D&amp;cat=1001</v>
+      </c>
+      <c r="D73" t="s">
+        <v>89</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45814</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" t="s">
+        <v>108</v>
+      </c>
+      <c r="C74" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E6%B0%B4%E7%85%AE%E8%A5%BF%E8%93%9D%E8%8A%B1&amp;cat=1001</v>
+      </c>
+      <c r="D74" t="s">
+        <v>89</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45814</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>108</v>
+      </c>
+      <c r="C75" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%8E%89%E7%B1%B3%E8%83%A1%E8%90%9D%E5%8D%9C%E6%B1%81&amp;cat=1001</v>
+      </c>
+      <c r="D75" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45814</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>148</v>
+      </c>
+      <c r="B76" t="s">
+        <v>149</v>
+      </c>
+      <c r="C76" t="str">
+        <f t="shared" si="2"/>
+        <v>https://www.xiachufang.com/search/?keyword=%E7%89%9B%E8%82%89%E7%81%AB%E9%94%85&amp;cat=1001</v>
+      </c>
+      <c r="D76" t="s">
+        <v>154</v>
+      </c>
+      <c r="E76" s="1">
+        <v>45814</v>
+      </c>
+      <c r="F76" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
